--- a/data/scientists_edit_ed.xlsx
+++ b/data/scientists_edit_ed.xlsx
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -217,10 +211,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -550,7 +544,7 @@
     <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -593,16 +587,16 @@
         <v>11</v>
       </c>
       <c r="F2" s="6">
-        <v>25569.375086944445</v>
+        <v>25569.375092592592</v>
       </c>
       <c r="G2" s="6">
-        <v>25569.37524642361</v>
+        <v>25569.375243055554</v>
       </c>
       <c r="H2" s="5">
         <v>13779</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -619,16 +613,16 @@
         <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>25569.374900462964</v>
+        <v>25569.374895833334</v>
       </c>
       <c r="G3" s="6">
-        <v>25569.37515976852</v>
+        <v>25569.37516203704</v>
       </c>
       <c r="H3" s="5">
         <v>22404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -645,16 +639,16 @@
         <v>19</v>
       </c>
       <c r="F4" s="6">
-        <v>25569.37466335648</v>
+        <v>25569.374664351853</v>
       </c>
       <c r="G4" s="6">
-        <v>25569.37504488426</v>
+        <v>25569.375046296296</v>
       </c>
       <c r="H4" s="5">
         <v>32964</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -671,16 +665,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="6">
-        <v>25569.374864108795</v>
+        <v>25569.37486111111</v>
       </c>
       <c r="G5" s="6">
-        <v>25569.37514587963</v>
+        <v>25569.37515046296</v>
       </c>
       <c r="H5" s="5">
         <v>24345</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -697,16 +691,16 @@
         <v>26</v>
       </c>
       <c r="F6" s="6">
-        <v>25569.375031284722</v>
+        <v>25569.375034722223</v>
       </c>
       <c r="G6" s="6">
-        <v>25569.375271770834</v>
+        <v>25569.375266203704</v>
       </c>
       <c r="H6" s="5">
         <v>20777</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -723,16 +717,16 @@
         <v>30</v>
       </c>
       <c r="F7" s="6">
-        <v>25569.37463309028</v>
+        <v>25569.37462962963</v>
       </c>
       <c r="G7" s="6">
-        <v>25569.37482439815</v>
+        <v>25569.37482638889</v>
       </c>
       <c r="H7" s="5">
         <v>16529</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -749,16 +743,16 @@
         <v>34</v>
       </c>
       <c r="F8" s="6">
-        <v>25569.37505275463</v>
+        <v>25569.37505787037</v>
       </c>
       <c r="G8" s="6">
-        <v>25569.37523011574</v>
+        <v>25569.37523148148</v>
       </c>
       <c r="H8" s="5">
         <v>15324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -775,10 +769,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="6">
-        <v>25569.37448144676</v>
+        <v>25569.374479166665</v>
       </c>
       <c r="G9" s="6">
-        <v>25569.374810405094</v>
+        <v>25569.374814814815</v>
       </c>
       <c r="H9" s="5">
         <v>28422</v>
